--- a/visit planning/data-template.xlsx
+++ b/visit planning/data-template.xlsx
@@ -530,14 +530,14 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showDropDown="1" errorTitle="Unknown reason for exclusion" error="Please enter this reason in the Exclusions tab first" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>Exclusions!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown task" error="Please enter this task in the Tasks tab first" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
-      <formula1>Tasks!$A:$A</formula1>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" errorTitle="Unknown subject ID" error="Please enter this subject in the Participants tab first" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>Participants!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="1" errorTitle="Invalid release level" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Predefined!$A$2:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" errorTitle="Unknown subject ID" error="Please enter this subject in the Participants tab first" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>Participants!$A:$A</formula1>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown task" error="Please enter this task in the Tasks tab first" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>Tasks!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown condition" error="Please enter this condition in the Conditions tab first." showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>Conditions!$A:$A</formula1>
@@ -557,7 +557,7 @@
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -859,14 +859,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown ethnicity" error="Are you sure this in the correct ethnicity?" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>Predefined!$D$2:$D$3</formula1>
-    </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown Race" error="Are you sure this is the correct race?" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>Predefined!$C$2:$C$7</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" showDropDown="1" errorTitle="Unknown gender" error="Are you sure this is the correct gender?" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>Predefined!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown ethnicity" error="Are you sure this in the correct ethnicity?" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>Predefined!$D$2:$D$3</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -883,7 +883,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -933,7 +933,7 @@
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A65536"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1790,7 +1790,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/visit planning/data-template.xlsx
+++ b/visit planning/data-template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="6700" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" r:id="rId1"/>
@@ -17,30 +17,35 @@
     <sheet name="Predefined" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Conditions"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Exclusions"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"Locations"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Participants"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Predefined"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sessions"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Participants"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Exclusions"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Settings"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Tasks"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Conditions"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"Locations"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Settings"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Predefined"</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" codePage="1252"/>
+  <calcPr calcId="0" iterate="1" concurrentCalc="0"/>
+  <webPublishing css="0" allowPng="1" codePage="1252"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>release level</t>
   </si>
@@ -59,30 +64,160 @@
   <si>
     <t>release level</t>
   </si>
+  <si>
+    <t>test date</t>
+  </si>
+  <si>
+    <t>participant(s)</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>condition(s)</t>
+  </si>
+  <si>
+    <t>task(s)</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>subject id</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>ses</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>term (gestation) for infants</t>
+  </si>
+  <si>
+    <t>experience with target behavior</t>
+  </si>
+  <si>
+    <t>typical development/disability</t>
+  </si>
+  <si>
+    <t>country of origin</t>
+  </si>
+  <si>
+    <t>reason for exclusion</t>
+  </si>
+  <si>
+    <t>did not meet critera</t>
+  </si>
+  <si>
+    <t>procedural error</t>
+  </si>
+  <si>
+    <t>outlier</t>
+  </si>
+  <si>
+    <t>withdrew</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>PRIVATE</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>SHARED</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>EXCERPTS</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high </t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle </t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mmm-dd" numFmtId="100"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,187 +229,431 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" style="1" width="12.28498" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="2" width="15.14195" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" style="3" width="14.57055" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="4" width="10.2851" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" style="5" width="13.28492" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" style="6" width="8.142368" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" style="7" width="8.999459" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" style="7" width="8.142368" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" style="7" width="9.142308"/>
-    <col min="10" max="16384" style="7"/>
+    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="8" t="str">
-        <v>test date</v>
+      <c r="A1" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="B1" s="9" t="str">
-        <v>participant(s)</v>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="str">
-        <v>excluded</v>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
       </c>
-      <c r="E1" s="12" t="str">
-        <v>condition(s)</v>
+      <c r="E1" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="F1" s="13" t="str">
-        <v>task(s)</v>
+      <c r="F1" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="G1" s="10" t="str">
-        <v>location</v>
+      <c r="G1" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10" t="str">
-        <v>...</v>
+      <c r="I1" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -526,62 +905,86 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <dataValidations count="5">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showDropDown="1" errorTitle="Unknown reason for exclusion" error="Please enter this reason in the Exclusions tab first" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>Exclusions!$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown task" error="Please enter this task in the Tasks tab first" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
-      <formula1>Tasks!$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" errorTitle="Invalid release level" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>Predefined!$A$2:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" errorTitle="Unknown subject ID" error="Please enter this subject in the Participants tab first" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>Participants!$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown condition" error="Please enter this condition in the Conditions tab first." showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>Conditions!$A:$A</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown reason for exclusion" error="Please enter this reason in the Exclusions tab first">
+          <x14:formula1>
+            <xm:f>Exclusions!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown subject ID" error="Please enter this subject in the Participants tab first">
+          <x14:formula1>
+            <xm:f>Participants!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown task" error="Please enter this task in the Tasks tab first">
+          <x14:formula1>
+            <xm:f>Tasks!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown condition" error="Please enter this condition in the Conditions tab first.">
+          <x14:formula1>
+            <xm:f>Conditions!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Predefined!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Settings!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" style="14" width="11.14219" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="15" width="12.28498" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" style="16" width="8.285216" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="17" width="5.285397" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" style="18" width="9.713702" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" style="14" width="4.285457" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" style="14" width="10.57079" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" style="14" width="29.85535" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" style="14" width="34.56935" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" style="14" width="32.56947" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" style="14" width="18.14177" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" style="14"/>
+    <col min="1" max="1" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="19" t="str">
-        <v>subject id</v>
+      <c r="A1" s="19" t="s">
+        <v>13</v>
       </c>
-      <c r="B1" s="20" t="str">
-        <v>birthdate</v>
+      <c r="B1" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>2</v>
@@ -592,23 +995,23 @@
       <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="str">
-        <v>ses</v>
+      <c r="F1" s="19" t="s">
+        <v>15</v>
       </c>
-      <c r="G1" s="19" t="str">
-        <v>language</v>
+      <c r="G1" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="H1" s="19" t="str">
-        <v>term (gestation) for infants</v>
+      <c r="H1" s="19" t="s">
+        <v>17</v>
       </c>
-      <c r="I1" s="19" t="str">
-        <v>experience with target behavior</v>
+      <c r="I1" s="19" t="s">
+        <v>18</v>
       </c>
-      <c r="J1" s="19" t="str">
-        <v>typical development/disability</v>
+      <c r="J1" s="19" t="s">
+        <v>19</v>
       </c>
-      <c r="K1" s="19" t="str">
-        <v>country of origin</v>
+      <c r="K1" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
@@ -858,93 +1261,111 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown ethnicity" error="Are you sure this in the correct ethnicity?" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>Predefined!$D$2:$D$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" errorTitle="Unknown Race" error="Are you sure this is the correct race?" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>Predefined!$C$2:$C$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showDropDown="1" errorTitle="Unknown gender" error="Are you sure this is the correct gender?" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>Predefined!$B$2:$B$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown Race" error="Are you sure this is the correct race?">
+          <x14:formula1>
+            <xm:f>Predefined!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown gender" error="Are you sure this is the correct gender?">
+          <x14:formula1>
+            <xm:f>Predefined!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown ethnicity" error="Are you sure this in the correct ethnicity?">
+          <x14:formula1>
+            <xm:f>Predefined!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Predefined!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" style="24" width="21.99868" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="25" t="str">
-        <v>reason for exclusion</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="str">
-        <v>did not meet critera</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="str">
-        <v>procedural error</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="str">
-        <v>outlier</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="str">
-        <v>withdrew</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:IV1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" style="26" width="9.142308"/>
-    <col min="2" max="16384" style="26"/>
+    <col min="1" max="16384" width="8.7109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="27" t="str">
-        <v>task</v>
+      <c r="A1" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1204,32 +1625,33 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A65536"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" style="28" width="10.42794" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" style="28"/>
+    <col min="1" max="1" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="29" t="str">
-        <v>condition</v>
+      <c r="A1" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1489,35 +1911,35 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" style="30" width="9.142308"/>
-    <col min="3" max="16384" style="30"/>
+    <col min="1" max="16384" width="8.7109375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="31" t="str">
-        <v>country</v>
+      <c r="A1" s="31" t="s">
+        <v>28</v>
       </c>
-      <c r="B1" s="31" t="str">
-        <v>state</v>
+      <c r="B1" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -1776,27 +2198,27 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:IV4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV1"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" style="32" width="9.142308"/>
-    <col min="2" max="16384" style="32"/>
+    <col min="1" max="16384" width="8.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
@@ -2060,46 +2482,52 @@
       <c r="IV1" s="33"/>
     </row>
     <row r="2" spans="1:256">
-      <c r="A2" t="str">
-        <v>lab</v>
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:256">
-      <c r="A3" t="str">
-        <v>home</v>
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:256">
-      <c r="A4" t="str">
-        <v>public</v>
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256">
+      <c r="A5" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" style="34" width="13.99916" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="34" width="8.285216" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" style="34" width="37.42632" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="34" width="20.85589" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" style="34"/>
+    <col min="1" max="1" width="14" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -2115,7 +2543,9 @@
       <c r="D1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
@@ -18497,63 +18927,76 @@
       <c r="XFD1" s="35"/>
     </row>
     <row r="2" spans="1:16384">
-      <c r="A2" t="str">
-        <v>PRIVATE</v>
+      <c r="A2" t="s">
+        <v>33</v>
       </c>
-      <c r="B2" t="str">
-        <v>Male</v>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
-      <c r="C2" t="str">
-        <v>American Indian or Alaska Native</v>
+      <c r="C2" t="s">
+        <v>35</v>
       </c>
-      <c r="D2" t="str">
-        <v>Not Hispanic or Latino</v>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
-      <c r="A3" t="str">
-        <v>SHARED</v>
+      <c r="A3" t="s">
+        <v>37</v>
       </c>
-      <c r="B3" t="str">
-        <v>Female</v>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
-      <c r="C3" t="str">
-        <v>Asian</v>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
-      <c r="D3" t="str">
-        <v>Hispanic or Latino</v>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
-      <c r="A4" t="str">
-        <v>EXCERPTS</v>
+      <c r="A4" t="s">
+        <v>41</v>
       </c>
-      <c r="C4" t="str">
-        <v>Native Hawaiian or Other Pacific Islander</v>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" t="str">
-        <v>PUBLIC</v>
+      <c r="A5" t="s">
+        <v>43</v>
       </c>
-      <c r="C5" t="str">
-        <v>Black or African American</v>
+      <c r="C5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
-      <c r="C6" t="str">
-        <v>White</v>
+      <c r="C6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
-      <c r="C7" t="str">
-        <v>Multiple</v>
+      <c r="C7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/visit planning/data-template.xlsx
+++ b/visit planning/data-template.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" r:id="rId1"/>
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
-    <sheet name="Exclusions" sheetId="3" r:id="rId3"/>
-    <sheet name="Tasks" sheetId="4" r:id="rId4"/>
-    <sheet name="Conditions" sheetId="5" r:id="rId5"/>
-    <sheet name="Locations" sheetId="6" r:id="rId6"/>
-    <sheet name="Settings" sheetId="7" r:id="rId7"/>
-    <sheet name="Predefined" sheetId="8" r:id="rId8"/>
+    <sheet name="dataset" sheetId="9" r:id="rId3"/>
+    <sheet name="Exclusions" sheetId="3" r:id="rId4"/>
+    <sheet name="Tasks" sheetId="4" r:id="rId5"/>
+    <sheet name="Conditions" sheetId="5" r:id="rId6"/>
+    <sheet name="Locations" sheetId="6" r:id="rId7"/>
+    <sheet name="Settings" sheetId="7" r:id="rId8"/>
+    <sheet name="Predefined" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Conditions"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Exclusions"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"Locations"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"Conditions"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Exclusions"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Locations"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Participants"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Predefined"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="8">"Predefined"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sessions"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Settings"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Tasks"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Settings"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Tasks"</definedName>
   </definedNames>
   <calcPr calcId="0" iterate="1" concurrentCalc="0"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>release level</t>
   </si>
@@ -198,6 +199,9 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>dataset</t>
   </si>
 </sst>
 </file>
@@ -608,54 +612,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV1"/>
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="8.7109375" style="34"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:257">
+      <c r="A1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -902,6 +907,7 @@
       <c r="IT1" s="10"/>
       <c r="IU1" s="10"/>
       <c r="IV1" s="10"/>
+      <c r="IW1" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -914,37 +920,37 @@
           <x14:formula1>
             <xm:f>Exclusions!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown subject ID" error="Please enter this subject in the Participants tab first">
           <x14:formula1>
             <xm:f>Participants!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown task" error="Please enter this task in the Tasks tab first">
           <x14:formula1>
             <xm:f>Tasks!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown condition" error="Please enter this condition in the Conditions tab first.">
           <x14:formula1>
             <xm:f>Conditions!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Predefined!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -957,63 +963,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV1"/>
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="14"/>
+    <col min="2" max="2" width="11.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256">
+    <row r="1" spans="1:257">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
@@ -1258,6 +1267,7 @@
       <c r="IT1" s="19"/>
       <c r="IU1" s="19"/>
       <c r="IV1" s="19"/>
+      <c r="IW1" s="19"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -1270,25 +1280,25 @@
           <x14:formula1>
             <xm:f>Predefined!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown gender" error="Are you sure this is the correct gender?">
           <x14:formula1>
             <xm:f>Predefined!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown ethnicity" error="Are you sure this in the correct ethnicity?">
           <x14:formula1>
             <xm:f>Predefined!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Predefined!$E:$E</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1300,6 +1310,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1350,7 +1377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
@@ -1635,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
@@ -1921,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
@@ -2208,7 +2235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV5"/>
   <sheetViews>
@@ -2513,7 +2540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD7"/>
   <sheetViews>

--- a/visit planning/data-template.xlsx
+++ b/visit planning/data-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Predefined" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sessions!$E$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
@@ -35,7 +36,7 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Settings"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Tasks"</definedName>
   </definedNames>
-  <calcPr calcId="0" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>release level</t>
   </si>
@@ -67,9 +68,6 @@
   </si>
   <si>
     <t>test date</t>
-  </si>
-  <si>
-    <t>participant(s)</t>
   </si>
   <si>
     <t>excluded</t>
@@ -114,16 +112,7 @@
     <t>reason for exclusion</t>
   </si>
   <si>
-    <t>did not meet critera</t>
-  </si>
-  <si>
-    <t>procedural error</t>
-  </si>
-  <si>
     <t>outlier</t>
-  </si>
-  <si>
-    <t>withdrew</t>
   </si>
   <si>
     <t>task</t>
@@ -142,9 +131,6 @@
   </si>
   <si>
     <t>home</t>
-  </si>
-  <si>
-    <t>public</t>
   </si>
   <si>
     <t>PRIVATE</t>
@@ -203,6 +189,42 @@
   <si>
     <t>dataset</t>
   </si>
+  <si>
+    <t>fussy, tired, withdrew</t>
+  </si>
+  <si>
+    <t>did not meet inclusion critera</t>
+  </si>
+  <si>
+    <t>procedural/experimenter error</t>
+  </si>
+  <si>
+    <t>museum</t>
+  </si>
+  <si>
+    <t>outdoors</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>participants</t>
+  </si>
+  <si>
+    <t>not excluded</t>
+  </si>
+  <si>
+    <t>babies crawling</t>
+  </si>
+  <si>
+    <t>bridges</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -221,6 +243,18 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Sans"/>
     </font>
   </fonts>
@@ -241,10 +275,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -281,8 +321,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,9 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW1"/>
+  <dimension ref="A1:IW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -632,34 +681,34 @@
   <sheetData>
     <row r="1" spans="1:257">
       <c r="A1" s="35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -909,6 +958,168 @@
       <c r="IV1" s="10"/>
       <c r="IW1" s="10"/>
     </row>
+    <row r="2" spans="1:257">
+      <c r="A2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:257" s="34" customFormat="1">
+      <c r="B3" s="15"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:257">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:257">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:257">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:257">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:257">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:257">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:257">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:257">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:257">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:257">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:257">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:257">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:257">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
@@ -916,18 +1127,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown reason for exclusion" error="Please enter this reason in the Exclusions tab first">
-          <x14:formula1>
-            <xm:f>Exclusions!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown subject ID" error="Please enter this subject in the Participants tab first">
-          <x14:formula1>
-            <xm:f>Participants!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown task" error="Please enter this task in the Tasks tab first">
           <x14:formula1>
             <xm:f>Tasks!$A:$A</xm:f>
@@ -948,9 +1147,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Settings!$A$2:$A$5</xm:f>
+            <xm:f>Settings!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Exclusions!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>dataset!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -963,15 +1174,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW1"/>
+  <dimension ref="A1:IW3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="34" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
@@ -987,14 +1196,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
+      <c r="A1" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -1006,22 +1215,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
@@ -1269,6 +1478,16 @@
       <c r="IV1" s="19"/>
       <c r="IW1" s="19"/>
     </row>
+    <row r="2" spans="1:257">
+      <c r="A2" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:257">
+      <c r="A3" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
@@ -1311,12 +1530,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1328,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1342,27 +1574,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>22</v>
+    <row r="2" spans="1:1" s="34" customFormat="1">
+      <c r="A2" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1629,7 @@
   <sheetData>
     <row r="1" spans="1:256">
       <c r="A1" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1678,7 +1915,7 @@
   <sheetData>
     <row r="1" spans="1:256">
       <c r="A1" s="29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1963,10 +2200,10 @@
   <sheetData>
     <row r="1" spans="1:256">
       <c r="A1" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2237,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV5"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2510,22 +2747,32 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:256">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:256">
       <c r="A5" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256">
+      <c r="A6" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256">
+      <c r="A7" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
@@ -18955,65 +19202,65 @@
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="C7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
